--- a/resultados_sudoku_20251102_161409.xlsx
+++ b/resultados_sudoku_20251102_161409.xlsx
@@ -5,17 +5,17 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\OneDrive\Documentos\Uade\1. Progra III\sudoku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F05D62D-5ACF-4FCA-96D9-95146BDF62EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1399E2-40FD-4D11-BF13-8F4A5D25FCE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resultados Detallados" sheetId="1" r:id="rId1"/>
     <sheet name="Promedios" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
+    <sheet name="Graficos" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -311,7 +311,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$B$1</c:f>
+              <c:f>Graficos!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -332,7 +332,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$A$2:$A$4</c:f>
+              <c:f>Graficos!$A$2:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -349,7 +349,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$2:$B$4</c:f>
+              <c:f>Graficos!$B$2:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -376,7 +376,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$C$1</c:f>
+              <c:f>Graficos!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -397,7 +397,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$A$2:$A$4</c:f>
+              <c:f>Graficos!$A$2:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -414,7 +414,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$2:$C$4</c:f>
+              <c:f>Graficos!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -713,7 +713,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$B$1</c:f>
+              <c:f>Graficos!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -748,7 +748,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$A$2:$A$4</c:f>
+              <c:f>Graficos!$A$2:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -765,7 +765,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$2:$B$4</c:f>
+              <c:f>Graficos!$B$2:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -793,7 +793,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$C$1</c:f>
+              <c:f>Graficos!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -828,7 +828,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$A$2:$A$4</c:f>
+              <c:f>Graficos!$A$2:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -845,7 +845,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$2:$C$4</c:f>
+              <c:f>Graficos!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1156,7 +1156,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$D$1</c:f>
+              <c:f>Graficos!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1192,7 +1192,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$A$2:$A$4</c:f>
+              <c:f>Graficos!$A$2:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1209,7 +1209,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$2:$D$4</c:f>
+              <c:f>Graficos!$D$2:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1237,7 +1237,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$E$1</c:f>
+              <c:f>Graficos!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1272,7 +1272,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$A$2:$A$4</c:f>
+              <c:f>Graficos!$A$2:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1289,7 +1289,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$E$2:$E$4</c:f>
+              <c:f>Graficos!$E$2:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3544,8 +3544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N601"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="A327" workbookViewId="0">
+      <selection activeCell="E452" sqref="E452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14088,7 +14088,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:C4"/>
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
